--- a/template/物理化清单.xlsx
+++ b/template/物理化清单.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="32000" windowHeight="16080"/>
   </bookViews>
   <sheets>
-    <sheet name="物理化工具" sheetId="1" r:id="rId1"/>
+    <sheet name="待物理化清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
